--- a/menuItems.xlsx
+++ b/menuItems.xlsx
@@ -1,99 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vegetarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tortellini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">burger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salad</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -101,53 +62,110 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -258,80 +276,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="n">
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>vegetarian</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="3">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Hello World</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="n">
         <v>10.5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.8" customHeight="1" s="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>burger</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.8" customHeight="1" s="3">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>steak</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="3">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>salad</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>5.5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>